--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Selplg-Sele.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Selplg-Sele.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.08857830223131</v>
+        <v>91.63362566666667</v>
       </c>
       <c r="H2">
-        <v>4.08857830223131</v>
+        <v>274.900877</v>
       </c>
       <c r="I2">
-        <v>0.05684745442141163</v>
+        <v>0.5385978585809309</v>
       </c>
       <c r="J2">
-        <v>0.05684745442141163</v>
+        <v>0.538597858580931</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.42675531301565</v>
+        <v>6.490547666666667</v>
       </c>
       <c r="N2">
-        <v>2.42675531301565</v>
+        <v>19.471643</v>
       </c>
       <c r="O2">
-        <v>0.6276739193831573</v>
+        <v>0.8021666724616637</v>
       </c>
       <c r="P2">
-        <v>0.6276739193831573</v>
+        <v>0.8021666724616636</v>
       </c>
       <c r="Q2">
-        <v>9.921979117620337</v>
+        <v>594.7524152589901</v>
       </c>
       <c r="R2">
-        <v>9.921979117620337</v>
+        <v>5352.771737330911</v>
       </c>
       <c r="S2">
-        <v>0.03568166452364283</v>
+        <v>0.4320452520128431</v>
       </c>
       <c r="T2">
-        <v>0.03568166452364283</v>
+        <v>0.4320452520128431</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.08857830223131</v>
+        <v>91.63362566666667</v>
       </c>
       <c r="H3">
-        <v>4.08857830223131</v>
+        <v>274.900877</v>
       </c>
       <c r="I3">
-        <v>0.05684745442141163</v>
+        <v>0.5385978585809309</v>
       </c>
       <c r="J3">
-        <v>0.05684745442141163</v>
+        <v>0.538597858580931</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.43951224737706</v>
+        <v>1.600723</v>
       </c>
       <c r="N3">
-        <v>1.43951224737706</v>
+        <v>4.802169</v>
       </c>
       <c r="O3">
-        <v>0.3723260806168428</v>
+        <v>0.1978333275383364</v>
       </c>
       <c r="P3">
-        <v>0.3723260806168428</v>
+        <v>0.1978333275383364</v>
       </c>
       <c r="Q3">
-        <v>5.885558540422078</v>
+        <v>146.6800521780237</v>
       </c>
       <c r="R3">
-        <v>5.885558540422078</v>
+        <v>1320.120469602213</v>
       </c>
       <c r="S3">
-        <v>0.0211657898977688</v>
+        <v>0.1065526065680879</v>
       </c>
       <c r="T3">
-        <v>0.0211657898977688</v>
+        <v>0.1065526065680879</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>20</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.80366839622938</v>
+        <v>2.089075</v>
       </c>
       <c r="H4">
-        <v>1.80366839622938</v>
+        <v>6.267225</v>
       </c>
       <c r="I4">
-        <v>0.02507814437356701</v>
+        <v>0.01227902217367198</v>
       </c>
       <c r="J4">
-        <v>0.02507814437356701</v>
+        <v>0.01227902217367199</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.42675531301565</v>
+        <v>6.490547666666667</v>
       </c>
       <c r="N4">
-        <v>2.42675531301565</v>
+        <v>19.471643</v>
       </c>
       <c r="O4">
-        <v>0.6276739193831573</v>
+        <v>0.8021666724616637</v>
       </c>
       <c r="P4">
-        <v>0.6276739193831573</v>
+        <v>0.8021666724616636</v>
       </c>
       <c r="Q4">
-        <v>4.377061863468064</v>
+        <v>13.55924086674167</v>
       </c>
       <c r="R4">
-        <v>4.377061863468064</v>
+        <v>122.033167800675</v>
       </c>
       <c r="S4">
-        <v>0.01574089716981348</v>
+        <v>0.009849822358137439</v>
       </c>
       <c r="T4">
-        <v>0.01574089716981348</v>
+        <v>0.009849822358137441</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>21</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.80366839622938</v>
+        <v>2.089075</v>
       </c>
       <c r="H5">
-        <v>1.80366839622938</v>
+        <v>6.267225</v>
       </c>
       <c r="I5">
-        <v>0.02507814437356701</v>
+        <v>0.01227902217367198</v>
       </c>
       <c r="J5">
-        <v>0.02507814437356701</v>
+        <v>0.01227902217367199</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.43951224737706</v>
+        <v>1.600723</v>
       </c>
       <c r="N5">
-        <v>1.43951224737706</v>
+        <v>4.802169</v>
       </c>
       <c r="O5">
-        <v>0.3723260806168428</v>
+        <v>0.1978333275383364</v>
       </c>
       <c r="P5">
-        <v>0.3723260806168428</v>
+        <v>0.1978333275383364</v>
       </c>
       <c r="Q5">
-        <v>2.596402746579133</v>
+        <v>3.344030401225</v>
       </c>
       <c r="R5">
-        <v>2.596402746579133</v>
+        <v>30.096273611025</v>
       </c>
       <c r="S5">
-        <v>0.009337247203753533</v>
+        <v>0.002429199815534545</v>
       </c>
       <c r="T5">
-        <v>0.009337247203753533</v>
+        <v>0.002429199815534545</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>64.3060840306494</v>
+        <v>74.500838</v>
       </c>
       <c r="H6">
-        <v>64.3060840306494</v>
+        <v>223.502514</v>
       </c>
       <c r="I6">
-        <v>0.8941096172615239</v>
+        <v>0.437895930858942</v>
       </c>
       <c r="J6">
-        <v>0.8941096172615239</v>
+        <v>0.4378959308589421</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.42675531301565</v>
+        <v>6.490547666666667</v>
       </c>
       <c r="N6">
-        <v>2.42675531301565</v>
+        <v>19.471643</v>
       </c>
       <c r="O6">
-        <v>0.6276739193831573</v>
+        <v>0.8021666724616637</v>
       </c>
       <c r="P6">
-        <v>0.6276739193831573</v>
+        <v>0.8021666724616636</v>
       </c>
       <c r="Q6">
-        <v>156.0551310806093</v>
+        <v>483.5512402456114</v>
       </c>
       <c r="R6">
-        <v>156.0551310806093</v>
+        <v>4351.961162210502</v>
       </c>
       <c r="S6">
-        <v>0.5612092878247155</v>
+        <v>0.3512655217416203</v>
       </c>
       <c r="T6">
-        <v>0.5612092878247155</v>
+        <v>0.3512655217416203</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>64.3060840306494</v>
+        <v>74.500838</v>
       </c>
       <c r="H7">
-        <v>64.3060840306494</v>
+        <v>223.502514</v>
       </c>
       <c r="I7">
-        <v>0.8941096172615239</v>
+        <v>0.437895930858942</v>
       </c>
       <c r="J7">
-        <v>0.8941096172615239</v>
+        <v>0.4378959308589421</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.43951224737706</v>
+        <v>1.600723</v>
       </c>
       <c r="N7">
-        <v>1.43951224737706</v>
+        <v>4.802169</v>
       </c>
       <c r="O7">
-        <v>0.3723260806168428</v>
+        <v>0.1978333275383364</v>
       </c>
       <c r="P7">
-        <v>0.3723260806168428</v>
+        <v>0.1978333275383364</v>
       </c>
       <c r="Q7">
-        <v>92.5693955429782</v>
+        <v>119.255204905874</v>
       </c>
       <c r="R7">
-        <v>92.5693955429782</v>
+        <v>1073.296844152866</v>
       </c>
       <c r="S7">
-        <v>0.3329003294368086</v>
+        <v>0.08663040911732178</v>
       </c>
       <c r="T7">
-        <v>0.3329003294368086</v>
+        <v>0.08663040911732178</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.72359337188086</v>
+        <v>1.910122666666666</v>
       </c>
       <c r="H8">
-        <v>1.72359337188086</v>
+        <v>5.730367999999999</v>
       </c>
       <c r="I8">
-        <v>0.0239647839434973</v>
+        <v>0.01122718838645499</v>
       </c>
       <c r="J8">
-        <v>0.0239647839434973</v>
+        <v>0.01122718838645499</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.42675531301565</v>
+        <v>6.490547666666667</v>
       </c>
       <c r="N8">
-        <v>2.42675531301565</v>
+        <v>19.471643</v>
       </c>
       <c r="O8">
-        <v>0.6276739193831573</v>
+        <v>0.8021666724616637</v>
       </c>
       <c r="P8">
-        <v>0.6276739193831573</v>
+        <v>0.8021666724616636</v>
       </c>
       <c r="Q8">
-        <v>4.182739372690436</v>
+        <v>12.39774221718044</v>
       </c>
       <c r="R8">
-        <v>4.182739372690436</v>
+        <v>111.579679954624</v>
       </c>
       <c r="S8">
-        <v>0.01504206986498551</v>
+        <v>0.009006076349062834</v>
       </c>
       <c r="T8">
-        <v>0.01504206986498551</v>
+        <v>0.009006076349062834</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.72359337188086</v>
+        <v>1.910122666666666</v>
       </c>
       <c r="H9">
-        <v>1.72359337188086</v>
+        <v>5.730367999999999</v>
       </c>
       <c r="I9">
-        <v>0.0239647839434973</v>
+        <v>0.01122718838645499</v>
       </c>
       <c r="J9">
-        <v>0.0239647839434973</v>
+        <v>0.01122718838645499</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.43951224737706</v>
+        <v>1.600723</v>
       </c>
       <c r="N9">
-        <v>1.43951224737706</v>
+        <v>4.802169</v>
       </c>
       <c r="O9">
-        <v>0.3723260806168428</v>
+        <v>0.1978333275383364</v>
       </c>
       <c r="P9">
-        <v>0.3723260806168428</v>
+        <v>0.1978333275383364</v>
       </c>
       <c r="Q9">
-        <v>2.481133768320422</v>
+        <v>3.057577285354666</v>
       </c>
       <c r="R9">
-        <v>2.481133768320422</v>
+        <v>27.518195568192</v>
       </c>
       <c r="S9">
-        <v>0.008922714078511798</v>
+        <v>0.002221112037392157</v>
       </c>
       <c r="T9">
-        <v>0.008922714078511798</v>
+        <v>0.002221112037392157</v>
       </c>
     </row>
   </sheetData>
